--- a/va_facility_data_2025-02-20/Carrollton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Carrollton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Carrollton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Carrollton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra4dd73b448e744c4b532b39d9a8ef6ac"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd0ee175779654a8bbcfc16a81c9c8814"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfab65e335a854edf925af89f1d62e9af"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R76238130e67e4ca5bfdc9cab7b1de654"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R871e4c114d124682a7a5b190d1df3784"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd827d839a1d54988b2263fe032df246c"/>
   </x:sheets>
 </x:workbook>
 </file>
